--- a/2019LVRegionalData.xlsx
+++ b/2019LVRegionalData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffreyshen/PycharmProjects/DataAnalysisProgram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4771BFE-3B40-934A-A0C4-93B90ACA53E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E75A06A-8703-EE4A-9088-E7102C7DFFD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6915,8 +6915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V867"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D802" sqref="D802"/>
+    <sheetView tabSelected="1" topLeftCell="A754" workbookViewId="0">
+      <selection activeCell="C773" sqref="C773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -24963,6 +24963,9 @@
       <c r="V489" s="19"/>
     </row>
     <row r="490" spans="1:22">
+      <c r="A490" s="5">
+        <v>487</v>
+      </c>
       <c r="B490" s="43">
         <v>6519</v>
       </c>
@@ -24992,6 +24995,9 @@
       </c>
     </row>
     <row r="491" spans="1:22">
+      <c r="A491" s="5">
+        <v>488</v>
+      </c>
       <c r="B491" s="43">
         <v>6519</v>
       </c>
@@ -25021,6 +25027,9 @@
       </c>
     </row>
     <row r="492" spans="1:22">
+      <c r="A492" s="5">
+        <v>489</v>
+      </c>
       <c r="B492" s="43">
         <v>6519</v>
       </c>
@@ -25050,6 +25059,9 @@
       </c>
     </row>
     <row r="493" spans="1:22">
+      <c r="A493" s="5">
+        <v>490</v>
+      </c>
       <c r="B493" s="43">
         <v>6519</v>
       </c>
@@ -25079,6 +25091,9 @@
       </c>
     </row>
     <row r="494" spans="1:22">
+      <c r="A494" s="5">
+        <v>491</v>
+      </c>
       <c r="B494" s="43">
         <v>6519</v>
       </c>
@@ -25108,6 +25123,9 @@
       </c>
     </row>
     <row r="495" spans="1:22">
+      <c r="A495" s="5">
+        <v>492</v>
+      </c>
       <c r="B495" s="43">
         <v>6519</v>
       </c>
@@ -25137,6 +25155,9 @@
       </c>
     </row>
     <row r="496" spans="1:22">
+      <c r="A496" s="5">
+        <v>493</v>
+      </c>
       <c r="B496" s="43">
         <v>6519</v>
       </c>
@@ -25165,7 +25186,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="2:10">
+    <row r="497" spans="1:10">
+      <c r="A497" s="5">
+        <v>494</v>
+      </c>
       <c r="B497" s="43">
         <v>6519</v>
       </c>
@@ -25194,7 +25218,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="2:10">
+    <row r="498" spans="1:10">
+      <c r="A498" s="5">
+        <v>495</v>
+      </c>
       <c r="B498" s="43">
         <v>6519</v>
       </c>
@@ -25223,7 +25250,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="2:10">
+    <row r="499" spans="1:10">
+      <c r="A499" s="5">
+        <v>496</v>
+      </c>
       <c r="B499" s="43">
         <v>6519</v>
       </c>
@@ -25252,7 +25282,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="2:10">
+    <row r="500" spans="1:10">
+      <c r="A500" s="5">
+        <v>497</v>
+      </c>
       <c r="B500" s="43">
         <v>6519</v>
       </c>
@@ -25281,7 +25314,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="2:10">
+    <row r="501" spans="1:10">
+      <c r="A501" s="5">
+        <v>498</v>
+      </c>
       <c r="B501" s="43">
         <v>6519</v>
       </c>
@@ -25310,7 +25346,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="2:10">
+    <row r="502" spans="1:10">
+      <c r="A502" s="5">
+        <v>499</v>
+      </c>
       <c r="B502" s="43">
         <v>6519</v>
       </c>
@@ -25339,7 +25378,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="2:10">
+    <row r="503" spans="1:10">
+      <c r="A503" s="5">
+        <v>500</v>
+      </c>
       <c r="B503" s="43">
         <v>6519</v>
       </c>
@@ -25368,7 +25410,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="2:10">
+    <row r="504" spans="1:10">
+      <c r="A504" s="5">
+        <v>501</v>
+      </c>
       <c r="B504" s="43">
         <v>6821</v>
       </c>
@@ -25397,7 +25442,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="2:10">
+    <row r="505" spans="1:10">
+      <c r="A505" s="5">
+        <v>502</v>
+      </c>
       <c r="B505" s="43">
         <v>6821</v>
       </c>
@@ -25426,7 +25474,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="2:10">
+    <row r="506" spans="1:10">
+      <c r="A506" s="5">
+        <v>503</v>
+      </c>
       <c r="B506" s="43">
         <v>6821</v>
       </c>
@@ -25455,7 +25506,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="2:10">
+    <row r="507" spans="1:10">
+      <c r="A507" s="5">
+        <v>504</v>
+      </c>
       <c r="B507" s="43">
         <v>6821</v>
       </c>
@@ -25484,7 +25538,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="2:10">
+    <row r="508" spans="1:10">
+      <c r="A508" s="5">
+        <v>505</v>
+      </c>
       <c r="B508" s="43">
         <v>6821</v>
       </c>
@@ -25513,7 +25570,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="2:10">
+    <row r="509" spans="1:10">
+      <c r="A509" s="5">
+        <v>506</v>
+      </c>
       <c r="B509" s="43">
         <v>6821</v>
       </c>
@@ -25542,7 +25602,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="2:10">
+    <row r="510" spans="1:10">
+      <c r="A510" s="5">
+        <v>507</v>
+      </c>
       <c r="B510" s="43">
         <v>6821</v>
       </c>
@@ -25571,7 +25634,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="2:10">
+    <row r="511" spans="1:10">
+      <c r="A511" s="5">
+        <v>508</v>
+      </c>
       <c r="B511" s="43">
         <v>6821</v>
       </c>
@@ -25600,7 +25666,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="2:10">
+    <row r="512" spans="1:10">
+      <c r="A512" s="5">
+        <v>509</v>
+      </c>
       <c r="B512" s="43">
         <v>6821</v>
       </c>
@@ -25629,7 +25698,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="2:10">
+    <row r="513" spans="1:10">
+      <c r="A513" s="5">
+        <v>510</v>
+      </c>
       <c r="B513" s="43">
         <v>6821</v>
       </c>
@@ -25658,7 +25730,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="2:10">
+    <row r="514" spans="1:10">
+      <c r="A514" s="5">
+        <v>511</v>
+      </c>
       <c r="B514" s="43">
         <v>6821</v>
       </c>
@@ -25687,7 +25762,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="2:10">
+    <row r="515" spans="1:10">
+      <c r="A515" s="5">
+        <v>512</v>
+      </c>
       <c r="B515" s="43">
         <v>6821</v>
       </c>
@@ -25716,7 +25794,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="2:10">
+    <row r="516" spans="1:10">
+      <c r="A516" s="5">
+        <v>513</v>
+      </c>
       <c r="B516" s="43">
         <v>6821</v>
       </c>
@@ -25745,7 +25826,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="2:10">
+    <row r="517" spans="1:10">
+      <c r="A517" s="5">
+        <v>514</v>
+      </c>
       <c r="B517" s="43">
         <v>6821</v>
       </c>
@@ -25774,7 +25858,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="2:10">
+    <row r="518" spans="1:10">
+      <c r="A518" s="5">
+        <v>515</v>
+      </c>
       <c r="B518" s="43">
         <v>6821</v>
       </c>
@@ -25803,7 +25890,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="2:10">
+    <row r="519" spans="1:10">
+      <c r="A519" s="5">
+        <v>516</v>
+      </c>
       <c r="B519" s="43">
         <v>6821</v>
       </c>
@@ -25832,7 +25922,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="2:10">
+    <row r="520" spans="1:10">
+      <c r="A520" s="5">
+        <v>517</v>
+      </c>
       <c r="B520" s="43">
         <v>6822</v>
       </c>
@@ -25861,7 +25954,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="2:10">
+    <row r="521" spans="1:10">
+      <c r="A521" s="5">
+        <v>518</v>
+      </c>
       <c r="B521" s="43">
         <v>6822</v>
       </c>
@@ -25890,7 +25986,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="2:10">
+    <row r="522" spans="1:10">
+      <c r="A522" s="5">
+        <v>519</v>
+      </c>
       <c r="B522" s="43">
         <v>6822</v>
       </c>
@@ -25919,7 +26018,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="2:10">
+    <row r="523" spans="1:10">
+      <c r="A523" s="5">
+        <v>520</v>
+      </c>
       <c r="B523" s="43">
         <v>6822</v>
       </c>
@@ -25948,7 +26050,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="2:10">
+    <row r="524" spans="1:10">
+      <c r="A524" s="5">
+        <v>521</v>
+      </c>
       <c r="B524" s="43">
         <v>6822</v>
       </c>
@@ -25977,7 +26082,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="2:10">
+    <row r="525" spans="1:10">
+      <c r="A525" s="5">
+        <v>522</v>
+      </c>
       <c r="B525" s="43">
         <v>6822</v>
       </c>
@@ -26006,7 +26114,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="2:10">
+    <row r="526" spans="1:10">
+      <c r="A526" s="5">
+        <v>523</v>
+      </c>
       <c r="B526" s="43">
         <v>6822</v>
       </c>
@@ -26035,7 +26146,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="2:10">
+    <row r="527" spans="1:10">
+      <c r="A527" s="5">
+        <v>524</v>
+      </c>
       <c r="B527" s="43">
         <v>6822</v>
       </c>
@@ -26064,7 +26178,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="2:10">
+    <row r="528" spans="1:10">
+      <c r="A528" s="5">
+        <v>525</v>
+      </c>
       <c r="B528" s="43">
         <v>6822</v>
       </c>
@@ -26093,7 +26210,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="2:10">
+    <row r="529" spans="1:10">
+      <c r="A529" s="5">
+        <v>526</v>
+      </c>
       <c r="B529" s="43">
         <v>6822</v>
       </c>
@@ -26122,7 +26242,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="2:10">
+    <row r="530" spans="1:10">
+      <c r="A530" s="5">
+        <v>527</v>
+      </c>
       <c r="B530" s="43">
         <v>6822</v>
       </c>
@@ -26151,7 +26274,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="2:10">
+    <row r="531" spans="1:10">
+      <c r="A531" s="5">
+        <v>528</v>
+      </c>
       <c r="B531" s="43">
         <v>6822</v>
       </c>
@@ -26180,7 +26306,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="2:10">
+    <row r="532" spans="1:10">
+      <c r="A532" s="5">
+        <v>529</v>
+      </c>
       <c r="B532" s="43">
         <v>6822</v>
       </c>
@@ -26209,7 +26338,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="2:10">
+    <row r="533" spans="1:10">
+      <c r="A533" s="5">
+        <v>530</v>
+      </c>
       <c r="B533" s="43">
         <v>6822</v>
       </c>
@@ -26238,7 +26370,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="2:10">
+    <row r="534" spans="1:10">
+      <c r="A534" s="5">
+        <v>531</v>
+      </c>
       <c r="B534" s="43">
         <v>6822</v>
       </c>
@@ -26267,7 +26402,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="2:10">
+    <row r="535" spans="1:10">
+      <c r="A535" s="5">
+        <v>532</v>
+      </c>
       <c r="B535" s="43">
         <v>6822</v>
       </c>
@@ -26296,7 +26434,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="2:10">
+    <row r="536" spans="1:10">
+      <c r="A536" s="5">
+        <v>533</v>
+      </c>
       <c r="B536" s="43">
         <v>6822</v>
       </c>
@@ -26325,7 +26466,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="2:10">
+    <row r="537" spans="1:10">
+      <c r="A537" s="5">
+        <v>534</v>
+      </c>
       <c r="B537" s="43">
         <v>6822</v>
       </c>
@@ -26354,7 +26498,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="2:10">
+    <row r="538" spans="1:10">
+      <c r="A538" s="5">
+        <v>535</v>
+      </c>
       <c r="B538" s="43">
         <v>6822</v>
       </c>
@@ -26383,7 +26530,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="2:10">
+    <row r="539" spans="1:10">
+      <c r="A539" s="5">
+        <v>536</v>
+      </c>
       <c r="B539" s="43">
         <v>6824</v>
       </c>
@@ -26412,7 +26562,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="2:10">
+    <row r="540" spans="1:10">
+      <c r="A540" s="5">
+        <v>537</v>
+      </c>
       <c r="B540" s="43">
         <v>6824</v>
       </c>
@@ -26441,7 +26594,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="2:10">
+    <row r="541" spans="1:10">
+      <c r="A541" s="5">
+        <v>538</v>
+      </c>
       <c r="B541" s="43">
         <v>6824</v>
       </c>
@@ -26470,7 +26626,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="2:10">
+    <row r="542" spans="1:10">
+      <c r="A542" s="5">
+        <v>539</v>
+      </c>
       <c r="B542" s="43">
         <v>6824</v>
       </c>
@@ -26499,7 +26658,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="2:10">
+    <row r="543" spans="1:10">
+      <c r="A543" s="5">
+        <v>540</v>
+      </c>
       <c r="B543" s="43">
         <v>6824</v>
       </c>
@@ -26528,7 +26690,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="2:10">
+    <row r="544" spans="1:10">
+      <c r="A544" s="5">
+        <v>541</v>
+      </c>
       <c r="B544" s="43">
         <v>6824</v>
       </c>
@@ -26557,7 +26722,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="2:10">
+    <row r="545" spans="1:10">
+      <c r="A545" s="5">
+        <v>542</v>
+      </c>
       <c r="B545" s="43">
         <v>6824</v>
       </c>
@@ -26586,7 +26754,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="2:10">
+    <row r="546" spans="1:10">
+      <c r="A546" s="5">
+        <v>543</v>
+      </c>
       <c r="B546" s="43">
         <v>6824</v>
       </c>
@@ -26615,7 +26786,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="2:10">
+    <row r="547" spans="1:10">
+      <c r="A547" s="5">
+        <v>544</v>
+      </c>
       <c r="B547" s="43">
         <v>6824</v>
       </c>
@@ -26644,7 +26818,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="2:10">
+    <row r="548" spans="1:10">
+      <c r="A548" s="5">
+        <v>545</v>
+      </c>
       <c r="B548" s="43">
         <v>6824</v>
       </c>
@@ -26673,7 +26850,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="2:10">
+    <row r="549" spans="1:10">
+      <c r="A549" s="5">
+        <v>546</v>
+      </c>
       <c r="B549" s="43">
         <v>6824</v>
       </c>
@@ -26702,7 +26882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="2:10">
+    <row r="550" spans="1:10">
+      <c r="A550" s="5">
+        <v>547</v>
+      </c>
       <c r="B550" s="43">
         <v>6824</v>
       </c>
@@ -26731,7 +26914,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="2:10">
+    <row r="551" spans="1:10">
+      <c r="A551" s="5">
+        <v>548</v>
+      </c>
       <c r="B551" s="43">
         <v>6824</v>
       </c>
@@ -26760,7 +26946,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="2:10">
+    <row r="552" spans="1:10">
+      <c r="A552" s="5">
+        <v>549</v>
+      </c>
       <c r="B552" s="43">
         <v>6824</v>
       </c>
@@ -26789,7 +26978,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="2:10">
+    <row r="553" spans="1:10">
+      <c r="A553" s="5">
+        <v>550</v>
+      </c>
       <c r="B553" s="43">
         <v>6824</v>
       </c>
@@ -26818,7 +27010,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="2:10">
+    <row r="554" spans="1:10">
+      <c r="A554" s="5">
+        <v>551</v>
+      </c>
       <c r="B554" s="43">
         <v>6824</v>
       </c>
@@ -26847,7 +27042,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="2:10">
+    <row r="555" spans="1:10">
+      <c r="A555" s="5">
+        <v>552</v>
+      </c>
       <c r="B555" s="43">
         <v>6824</v>
       </c>
@@ -26876,7 +27074,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="2:10">
+    <row r="556" spans="1:10">
+      <c r="A556" s="5">
+        <v>553</v>
+      </c>
       <c r="B556" s="43">
         <v>6825</v>
       </c>
@@ -26905,7 +27106,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="2:10">
+    <row r="557" spans="1:10">
+      <c r="A557" s="5">
+        <v>554</v>
+      </c>
       <c r="B557" s="43">
         <v>6825</v>
       </c>
@@ -26934,7 +27138,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="2:10">
+    <row r="558" spans="1:10">
+      <c r="A558" s="5">
+        <v>555</v>
+      </c>
       <c r="B558" s="43">
         <v>6825</v>
       </c>
@@ -26963,7 +27170,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="2:10">
+    <row r="559" spans="1:10">
+      <c r="A559" s="5">
+        <v>556</v>
+      </c>
       <c r="B559" s="43">
         <v>6825</v>
       </c>
@@ -26992,7 +27202,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="2:10">
+    <row r="560" spans="1:10">
+      <c r="A560" s="5">
+        <v>557</v>
+      </c>
       <c r="B560" s="43">
         <v>6825</v>
       </c>
@@ -27021,7 +27234,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="2:10">
+    <row r="561" spans="1:10">
+      <c r="A561" s="5">
+        <v>558</v>
+      </c>
       <c r="B561" s="43">
         <v>6825</v>
       </c>
@@ -27050,7 +27266,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="2:10">
+    <row r="562" spans="1:10">
+      <c r="A562" s="5">
+        <v>559</v>
+      </c>
       <c r="B562" s="43">
         <v>6825</v>
       </c>
@@ -27079,7 +27298,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="2:10">
+    <row r="563" spans="1:10">
+      <c r="A563" s="5">
+        <v>560</v>
+      </c>
       <c r="B563" s="43">
         <v>6825</v>
       </c>
@@ -27108,7 +27330,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="2:10">
+    <row r="564" spans="1:10">
+      <c r="A564" s="5">
+        <v>561</v>
+      </c>
       <c r="B564" s="43">
         <v>6825</v>
       </c>
@@ -27137,7 +27362,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="2:10">
+    <row r="565" spans="1:10">
+      <c r="A565" s="5">
+        <v>562</v>
+      </c>
       <c r="B565" s="43">
         <v>6825</v>
       </c>
@@ -27166,7 +27394,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="2:10">
+    <row r="566" spans="1:10">
+      <c r="A566" s="5">
+        <v>563</v>
+      </c>
       <c r="B566" s="43">
         <v>6825</v>
       </c>
@@ -27195,7 +27426,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="2:10">
+    <row r="567" spans="1:10">
+      <c r="A567" s="5">
+        <v>564</v>
+      </c>
       <c r="B567" s="43">
         <v>6825</v>
       </c>
@@ -27224,7 +27458,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="2:10">
+    <row r="568" spans="1:10">
+      <c r="A568" s="5">
+        <v>565</v>
+      </c>
       <c r="B568" s="43">
         <v>6825</v>
       </c>
@@ -27253,7 +27490,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="2:10">
+    <row r="569" spans="1:10">
+      <c r="A569" s="5">
+        <v>566</v>
+      </c>
       <c r="B569" s="43">
         <v>6825</v>
       </c>
@@ -27282,7 +27522,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="2:10">
+    <row r="570" spans="1:10">
+      <c r="A570" s="5">
+        <v>567</v>
+      </c>
       <c r="B570" s="43">
         <v>6825</v>
       </c>
@@ -27311,7 +27554,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="2:10">
+    <row r="571" spans="1:10">
+      <c r="A571" s="5">
+        <v>568</v>
+      </c>
       <c r="B571" s="43">
         <v>6825</v>
       </c>
@@ -27340,7 +27586,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="2:10">
+    <row r="572" spans="1:10">
+      <c r="A572" s="5">
+        <v>569</v>
+      </c>
       <c r="B572" s="43">
         <v>6825</v>
       </c>
@@ -27369,7 +27618,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="2:10">
+    <row r="573" spans="1:10">
+      <c r="A573" s="5">
+        <v>570</v>
+      </c>
       <c r="B573" s="43">
         <v>6825</v>
       </c>
@@ -27398,7 +27650,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="2:10">
+    <row r="574" spans="1:10">
+      <c r="A574" s="5">
+        <v>571</v>
+      </c>
       <c r="B574" s="43">
         <v>6825</v>
       </c>
@@ -27427,7 +27682,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="2:10">
+    <row r="575" spans="1:10">
+      <c r="A575" s="5">
+        <v>572</v>
+      </c>
       <c r="B575" s="43">
         <v>6957</v>
       </c>
@@ -27456,7 +27714,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="2:10">
+    <row r="576" spans="1:10">
+      <c r="A576" s="5">
+        <v>573</v>
+      </c>
       <c r="B576" s="43">
         <v>6957</v>
       </c>
@@ -27485,7 +27746,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="2:10">
+    <row r="577" spans="1:10">
+      <c r="A577" s="5">
+        <v>574</v>
+      </c>
       <c r="B577" s="43">
         <v>6957</v>
       </c>
@@ -27514,7 +27778,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="2:10">
+    <row r="578" spans="1:10">
+      <c r="A578" s="5">
+        <v>575</v>
+      </c>
       <c r="B578" s="43">
         <v>6957</v>
       </c>
@@ -27543,7 +27810,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="2:10">
+    <row r="579" spans="1:10">
+      <c r="A579" s="5">
+        <v>576</v>
+      </c>
       <c r="B579" s="43">
         <v>6957</v>
       </c>
@@ -27572,7 +27842,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="2:10">
+    <row r="580" spans="1:10">
+      <c r="A580" s="5">
+        <v>577</v>
+      </c>
       <c r="B580" s="43">
         <v>6957</v>
       </c>
@@ -27601,7 +27874,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="2:10">
+    <row r="581" spans="1:10">
+      <c r="A581" s="5">
+        <v>578</v>
+      </c>
       <c r="B581" s="43">
         <v>6957</v>
       </c>
@@ -27630,7 +27906,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="2:10">
+    <row r="582" spans="1:10">
+      <c r="A582" s="5">
+        <v>579</v>
+      </c>
       <c r="B582" s="43">
         <v>6957</v>
       </c>
@@ -27659,7 +27938,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="2:10">
+    <row r="583" spans="1:10">
+      <c r="A583" s="5">
+        <v>580</v>
+      </c>
       <c r="B583" s="43">
         <v>6957</v>
       </c>
@@ -27688,7 +27970,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="2:10">
+    <row r="584" spans="1:10">
+      <c r="A584" s="5">
+        <v>581</v>
+      </c>
       <c r="B584" s="43">
         <v>6957</v>
       </c>
@@ -27717,7 +28002,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="2:10">
+    <row r="585" spans="1:10">
+      <c r="A585" s="5">
+        <v>582</v>
+      </c>
       <c r="B585" s="43">
         <v>6957</v>
       </c>
@@ -27746,7 +28034,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="2:10">
+    <row r="586" spans="1:10">
+      <c r="A586" s="5">
+        <v>583</v>
+      </c>
       <c r="B586" s="43">
         <v>6957</v>
       </c>
@@ -27775,7 +28066,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="2:10">
+    <row r="587" spans="1:10">
+      <c r="A587" s="5">
+        <v>584</v>
+      </c>
       <c r="B587" s="43">
         <v>6957</v>
       </c>
@@ -27804,7 +28098,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="2:10">
+    <row r="588" spans="1:10">
+      <c r="A588" s="5">
+        <v>585</v>
+      </c>
       <c r="B588" s="43">
         <v>6957</v>
       </c>
@@ -27833,7 +28130,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="2:10">
+    <row r="589" spans="1:10">
+      <c r="A589" s="5">
+        <v>586</v>
+      </c>
       <c r="B589" s="43">
         <v>6957</v>
       </c>
@@ -27862,7 +28162,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="2:10">
+    <row r="590" spans="1:10">
+      <c r="A590" s="5">
+        <v>587</v>
+      </c>
       <c r="B590" s="43">
         <v>6957</v>
       </c>
@@ -27891,7 +28194,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="2:10">
+    <row r="591" spans="1:10">
+      <c r="A591" s="5">
+        <v>588</v>
+      </c>
       <c r="B591" s="43">
         <v>6957</v>
       </c>
@@ -27920,7 +28226,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="2:10">
+    <row r="592" spans="1:10">
+      <c r="A592" s="5">
+        <v>589</v>
+      </c>
       <c r="B592" s="43">
         <v>6957</v>
       </c>
@@ -27949,7 +28258,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="2:10">
+    <row r="593" spans="1:10">
+      <c r="A593" s="5">
+        <v>590</v>
+      </c>
       <c r="B593" s="43">
         <v>6957</v>
       </c>
@@ -27978,7 +28290,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="2:10">
+    <row r="594" spans="1:10">
+      <c r="A594" s="5">
+        <v>591</v>
+      </c>
       <c r="B594" s="43">
         <v>6957</v>
       </c>
@@ -28007,7 +28322,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="2:10">
+    <row r="595" spans="1:10">
+      <c r="A595" s="5">
+        <v>592</v>
+      </c>
       <c r="B595" s="43">
         <v>6957</v>
       </c>
@@ -28036,7 +28354,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="2:10">
+    <row r="596" spans="1:10">
+      <c r="A596" s="5">
+        <v>593</v>
+      </c>
       <c r="B596" s="43">
         <v>7077</v>
       </c>
@@ -28065,7 +28386,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="2:10">
+    <row r="597" spans="1:10">
+      <c r="A597" s="5">
+        <v>594</v>
+      </c>
       <c r="B597" s="43">
         <v>7077</v>
       </c>
@@ -28094,7 +28418,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="2:10">
+    <row r="598" spans="1:10">
+      <c r="A598" s="5">
+        <v>595</v>
+      </c>
       <c r="B598" s="43">
         <v>7077</v>
       </c>
@@ -28123,7 +28450,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="2:10">
+    <row r="599" spans="1:10">
+      <c r="A599" s="5">
+        <v>596</v>
+      </c>
       <c r="B599" s="43">
         <v>7077</v>
       </c>
@@ -28152,7 +28482,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="2:10">
+    <row r="600" spans="1:10">
+      <c r="A600" s="5">
+        <v>597</v>
+      </c>
       <c r="B600" s="43">
         <v>7077</v>
       </c>
@@ -28181,7 +28514,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="2:10">
+    <row r="601" spans="1:10">
+      <c r="A601" s="5">
+        <v>598</v>
+      </c>
       <c r="B601" s="43">
         <v>7077</v>
       </c>
@@ -28210,7 +28546,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="2:10">
+    <row r="602" spans="1:10">
+      <c r="A602" s="5">
+        <v>599</v>
+      </c>
       <c r="B602" s="43">
         <v>7077</v>
       </c>
@@ -28239,7 +28578,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="2:10">
+    <row r="603" spans="1:10">
+      <c r="A603" s="5">
+        <v>600</v>
+      </c>
       <c r="B603" s="43">
         <v>7077</v>
       </c>
@@ -28268,7 +28610,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="2:10">
+    <row r="604" spans="1:10">
+      <c r="A604" s="5">
+        <v>601</v>
+      </c>
       <c r="B604" s="43">
         <v>7077</v>
       </c>
@@ -28297,7 +28642,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="2:10">
+    <row r="605" spans="1:10">
+      <c r="A605" s="5">
+        <v>602</v>
+      </c>
       <c r="B605" s="43">
         <v>7077</v>
       </c>
@@ -28326,7 +28674,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="2:10">
+    <row r="606" spans="1:10">
+      <c r="A606" s="5">
+        <v>603</v>
+      </c>
       <c r="B606" s="43">
         <v>7077</v>
       </c>
@@ -28355,7 +28706,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="2:10">
+    <row r="607" spans="1:10">
+      <c r="A607" s="5">
+        <v>604</v>
+      </c>
       <c r="B607" s="43">
         <v>7077</v>
       </c>
@@ -28384,7 +28738,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="2:10">
+    <row r="608" spans="1:10">
+      <c r="A608" s="5">
+        <v>605</v>
+      </c>
       <c r="B608" s="43">
         <v>7077</v>
       </c>
@@ -28413,7 +28770,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="2:10">
+    <row r="609" spans="1:10">
+      <c r="A609" s="5">
+        <v>606</v>
+      </c>
       <c r="B609" s="43">
         <v>7077</v>
       </c>
@@ -28442,7 +28802,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="2:10">
+    <row r="610" spans="1:10">
+      <c r="A610" s="5">
+        <v>607</v>
+      </c>
       <c r="B610" s="43">
         <v>7077</v>
       </c>
@@ -28471,7 +28834,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="2:10">
+    <row r="611" spans="1:10">
+      <c r="A611" s="5">
+        <v>608</v>
+      </c>
       <c r="B611" s="43">
         <v>7077</v>
       </c>
@@ -28500,7 +28866,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="2:10">
+    <row r="612" spans="1:10">
+      <c r="A612" s="5">
+        <v>609</v>
+      </c>
       <c r="B612" s="43">
         <v>7124</v>
       </c>
@@ -28529,7 +28898,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="2:10">
+    <row r="613" spans="1:10">
+      <c r="A613" s="5">
+        <v>610</v>
+      </c>
       <c r="B613" s="43">
         <v>7183</v>
       </c>
@@ -28558,7 +28930,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="2:10">
+    <row r="614" spans="1:10">
+      <c r="A614" s="5">
+        <v>611</v>
+      </c>
       <c r="B614" s="43">
         <v>7183</v>
       </c>
@@ -28587,7 +28962,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="2:10">
+    <row r="615" spans="1:10">
+      <c r="A615" s="5">
+        <v>612</v>
+      </c>
       <c r="B615" s="43">
         <v>7183</v>
       </c>
@@ -28616,7 +28994,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="2:10">
+    <row r="616" spans="1:10">
+      <c r="A616" s="5">
+        <v>613</v>
+      </c>
       <c r="B616" s="43">
         <v>7183</v>
       </c>
@@ -28645,7 +29026,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="2:10">
+    <row r="617" spans="1:10">
+      <c r="A617" s="5">
+        <v>614</v>
+      </c>
       <c r="B617" s="43">
         <v>7183</v>
       </c>
@@ -28674,7 +29058,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="2:10">
+    <row r="618" spans="1:10">
+      <c r="A618" s="5">
+        <v>615</v>
+      </c>
       <c r="B618" s="43">
         <v>7183</v>
       </c>
@@ -28703,7 +29090,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="2:10">
+    <row r="619" spans="1:10">
+      <c r="A619" s="5">
+        <v>616</v>
+      </c>
       <c r="B619" s="43">
         <v>7183</v>
       </c>
@@ -28732,7 +29122,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="2:10">
+    <row r="620" spans="1:10">
+      <c r="A620" s="5">
+        <v>617</v>
+      </c>
       <c r="B620" s="43">
         <v>7183</v>
       </c>
@@ -28761,7 +29154,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="2:10">
+    <row r="621" spans="1:10">
+      <c r="A621" s="5">
+        <v>618</v>
+      </c>
       <c r="B621" s="43">
         <v>7183</v>
       </c>
@@ -28790,7 +29186,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="2:10">
+    <row r="622" spans="1:10">
+      <c r="A622" s="5">
+        <v>619</v>
+      </c>
       <c r="B622" s="43">
         <v>7183</v>
       </c>
@@ -28819,7 +29218,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="2:10">
+    <row r="623" spans="1:10">
+      <c r="A623" s="5">
+        <v>620</v>
+      </c>
       <c r="B623" s="43">
         <v>7183</v>
       </c>
@@ -28848,7 +29250,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="2:10">
+    <row r="624" spans="1:10">
+      <c r="A624" s="5">
+        <v>621</v>
+      </c>
       <c r="B624" s="43">
         <v>7183</v>
       </c>
@@ -28877,7 +29282,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="2:10">
+    <row r="625" spans="1:10">
+      <c r="A625" s="5">
+        <v>622</v>
+      </c>
       <c r="B625" s="43">
         <v>7183</v>
       </c>
@@ -28906,7 +29314,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="2:10">
+    <row r="626" spans="1:10">
+      <c r="A626" s="5">
+        <v>623</v>
+      </c>
       <c r="B626" s="43">
         <v>7183</v>
       </c>
@@ -28935,7 +29346,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="2:10">
+    <row r="627" spans="1:10">
+      <c r="A627" s="5">
+        <v>624</v>
+      </c>
       <c r="B627" s="43">
         <v>7183</v>
       </c>
@@ -28964,7 +29378,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="2:10">
+    <row r="628" spans="1:10">
+      <c r="A628" s="5">
+        <v>625</v>
+      </c>
       <c r="B628" s="43">
         <v>7422</v>
       </c>
@@ -28993,7 +29410,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="2:10">
+    <row r="629" spans="1:10">
+      <c r="A629" s="5">
+        <v>626</v>
+      </c>
       <c r="B629" s="43">
         <v>7422</v>
       </c>
@@ -29022,7 +29442,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="2:10">
+    <row r="630" spans="1:10">
+      <c r="A630" s="5">
+        <v>627</v>
+      </c>
       <c r="B630" s="43">
         <v>7422</v>
       </c>
@@ -29051,7 +29474,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="2:10">
+    <row r="631" spans="1:10">
+      <c r="A631" s="5">
+        <v>628</v>
+      </c>
       <c r="B631" s="43">
         <v>7422</v>
       </c>
@@ -29080,7 +29506,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="2:10">
+    <row r="632" spans="1:10">
+      <c r="A632" s="5">
+        <v>629</v>
+      </c>
       <c r="B632" s="43">
         <v>7422</v>
       </c>
@@ -29109,7 +29538,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="2:10">
+    <row r="633" spans="1:10">
+      <c r="A633" s="5">
+        <v>630</v>
+      </c>
       <c r="B633" s="43">
         <v>7422</v>
       </c>
@@ -29138,7 +29570,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="2:10">
+    <row r="634" spans="1:10">
+      <c r="A634" s="5">
+        <v>631</v>
+      </c>
       <c r="B634" s="43">
         <v>7422</v>
       </c>
@@ -29167,7 +29602,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="2:10">
+    <row r="635" spans="1:10">
+      <c r="A635" s="5">
+        <v>632</v>
+      </c>
       <c r="B635" s="43">
         <v>7422</v>
       </c>
@@ -29196,7 +29634,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="2:10">
+    <row r="636" spans="1:10">
+      <c r="A636" s="5">
+        <v>633</v>
+      </c>
       <c r="B636" s="43">
         <v>7422</v>
       </c>
@@ -29225,7 +29666,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="2:10">
+    <row r="637" spans="1:10">
+      <c r="A637" s="5">
+        <v>634</v>
+      </c>
       <c r="B637" s="43">
         <v>7422</v>
       </c>
@@ -29254,7 +29698,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="2:10">
+    <row r="638" spans="1:10">
+      <c r="A638" s="5">
+        <v>635</v>
+      </c>
       <c r="B638" s="43">
         <v>7422</v>
       </c>
@@ -29283,7 +29730,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="2:10">
+    <row r="639" spans="1:10">
+      <c r="A639" s="5">
+        <v>636</v>
+      </c>
       <c r="B639" s="43">
         <v>7422</v>
       </c>
@@ -29312,7 +29762,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="2:10">
+    <row r="640" spans="1:10">
+      <c r="A640" s="5">
+        <v>637</v>
+      </c>
       <c r="B640" s="43">
         <v>7422</v>
       </c>
@@ -29341,7 +29794,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="2:10">
+    <row r="641" spans="1:10">
+      <c r="A641" s="5">
+        <v>638</v>
+      </c>
       <c r="B641" s="43">
         <v>7422</v>
       </c>
@@ -29370,7 +29826,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="2:10">
+    <row r="642" spans="1:10">
+      <c r="A642" s="5">
+        <v>639</v>
+      </c>
       <c r="B642" s="43">
         <v>7422</v>
       </c>
@@ -29399,7 +29858,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="2:10">
+    <row r="643" spans="1:10">
+      <c r="A643" s="5">
+        <v>640</v>
+      </c>
       <c r="B643" s="43">
         <v>7422</v>
       </c>
@@ -29428,7 +29890,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="2:10">
+    <row r="644" spans="1:10">
+      <c r="A644" s="5">
+        <v>641</v>
+      </c>
       <c r="B644" s="43">
         <v>7422</v>
       </c>
@@ -29457,7 +29922,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="2:10">
+    <row r="645" spans="1:10">
+      <c r="A645" s="5">
+        <v>642</v>
+      </c>
       <c r="B645" s="43">
         <v>7422</v>
       </c>
@@ -29486,7 +29954,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="2:10">
+    <row r="646" spans="1:10">
+      <c r="A646" s="5">
+        <v>643</v>
+      </c>
       <c r="B646" s="43">
         <v>7424</v>
       </c>
@@ -29515,7 +29986,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="2:10">
+    <row r="647" spans="1:10">
+      <c r="A647" s="5">
+        <v>644</v>
+      </c>
       <c r="B647" s="43">
         <v>7424</v>
       </c>
@@ -29544,7 +30018,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="2:10">
+    <row r="648" spans="1:10">
+      <c r="A648" s="5">
+        <v>645</v>
+      </c>
       <c r="B648" s="43">
         <v>7424</v>
       </c>
@@ -29573,7 +30050,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="2:10">
+    <row r="649" spans="1:10">
+      <c r="A649" s="5">
+        <v>646</v>
+      </c>
       <c r="B649" s="43">
         <v>7424</v>
       </c>
@@ -29602,7 +30082,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="2:10">
+    <row r="650" spans="1:10">
+      <c r="A650" s="5">
+        <v>647</v>
+      </c>
       <c r="B650" s="43">
         <v>7424</v>
       </c>
@@ -29631,7 +30114,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="2:10">
+    <row r="651" spans="1:10">
+      <c r="A651" s="5">
+        <v>648</v>
+      </c>
       <c r="B651" s="43">
         <v>7424</v>
       </c>
@@ -29660,7 +30146,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="2:10">
+    <row r="652" spans="1:10">
+      <c r="A652" s="5">
+        <v>649</v>
+      </c>
       <c r="B652" s="43">
         <v>7424</v>
       </c>
@@ -29689,7 +30178,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="2:10">
+    <row r="653" spans="1:10">
+      <c r="A653" s="5">
+        <v>650</v>
+      </c>
       <c r="B653" s="43">
         <v>7424</v>
       </c>
@@ -29718,7 +30210,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="2:10">
+    <row r="654" spans="1:10">
+      <c r="A654" s="5">
+        <v>651</v>
+      </c>
       <c r="B654" s="43">
         <v>7424</v>
       </c>
@@ -29747,7 +30242,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="2:10">
+    <row r="655" spans="1:10">
+      <c r="A655" s="5">
+        <v>652</v>
+      </c>
       <c r="B655" s="43">
         <v>7424</v>
       </c>
@@ -29776,7 +30274,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="2:10">
+    <row r="656" spans="1:10">
+      <c r="A656" s="5">
+        <v>653</v>
+      </c>
       <c r="B656" s="43">
         <v>7424</v>
       </c>
@@ -29805,7 +30306,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="2:10">
+    <row r="657" spans="1:10">
+      <c r="A657" s="5">
+        <v>654</v>
+      </c>
       <c r="B657" s="43">
         <v>7424</v>
       </c>
@@ -29834,7 +30338,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="2:10">
+    <row r="658" spans="1:10">
+      <c r="A658" s="5">
+        <v>655</v>
+      </c>
       <c r="B658" s="43">
         <v>7424</v>
       </c>
@@ -29863,7 +30370,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="2:10">
+    <row r="659" spans="1:10">
+      <c r="A659" s="5">
+        <v>656</v>
+      </c>
       <c r="B659" s="43">
         <v>7424</v>
       </c>
@@ -29892,7 +30402,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="2:10">
+    <row r="660" spans="1:10">
+      <c r="A660" s="5">
+        <v>657</v>
+      </c>
       <c r="B660" s="43">
         <v>7424</v>
       </c>
@@ -29921,7 +30434,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="2:10">
+    <row r="661" spans="1:10">
+      <c r="A661" s="5">
+        <v>658</v>
+      </c>
       <c r="B661" s="43">
         <v>7424</v>
       </c>
@@ -29950,7 +30466,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="2:10">
+    <row r="662" spans="1:10">
+      <c r="A662" s="5">
+        <v>659</v>
+      </c>
       <c r="B662" s="43">
         <v>7424</v>
       </c>
@@ -29979,7 +30498,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="2:10">
+    <row r="663" spans="1:10">
+      <c r="A663" s="5">
+        <v>660</v>
+      </c>
       <c r="B663" s="43">
         <v>7424</v>
       </c>
@@ -30008,7 +30530,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="2:10">
+    <row r="664" spans="1:10">
+      <c r="A664" s="5">
+        <v>661</v>
+      </c>
       <c r="B664" s="43">
         <v>7425</v>
       </c>
@@ -30037,7 +30562,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="2:10">
+    <row r="665" spans="1:10">
+      <c r="A665" s="5">
+        <v>662</v>
+      </c>
       <c r="B665" s="43">
         <v>7425</v>
       </c>
@@ -30066,7 +30594,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="2:10">
+    <row r="666" spans="1:10">
+      <c r="A666" s="5">
+        <v>663</v>
+      </c>
       <c r="B666" s="43">
         <v>7425</v>
       </c>
@@ -30095,7 +30626,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="2:10">
+    <row r="667" spans="1:10">
+      <c r="A667" s="5">
+        <v>664</v>
+      </c>
       <c r="B667" s="43">
         <v>7425</v>
       </c>
@@ -30124,7 +30658,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="2:10">
+    <row r="668" spans="1:10">
+      <c r="A668" s="5">
+        <v>665</v>
+      </c>
       <c r="B668" s="43">
         <v>7425</v>
       </c>
@@ -30153,7 +30690,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="2:10">
+    <row r="669" spans="1:10">
+      <c r="A669" s="5">
+        <v>666</v>
+      </c>
       <c r="B669" s="43">
         <v>7425</v>
       </c>
@@ -30182,7 +30722,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="2:10">
+    <row r="670" spans="1:10">
+      <c r="A670" s="5">
+        <v>667</v>
+      </c>
       <c r="B670" s="43">
         <v>7425</v>
       </c>
@@ -30211,7 +30754,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="2:10">
+    <row r="671" spans="1:10">
+      <c r="A671" s="5">
+        <v>668</v>
+      </c>
       <c r="B671" s="43">
         <v>7425</v>
       </c>
@@ -30240,7 +30786,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="2:10">
+    <row r="672" spans="1:10">
+      <c r="A672" s="5">
+        <v>669</v>
+      </c>
       <c r="B672" s="43">
         <v>7425</v>
       </c>
@@ -30269,7 +30818,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="2:10">
+    <row r="673" spans="1:10">
+      <c r="A673" s="5">
+        <v>670</v>
+      </c>
       <c r="B673" s="43">
         <v>7425</v>
       </c>
@@ -30298,7 +30850,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="2:10">
+    <row r="674" spans="1:10">
+      <c r="A674" s="5">
+        <v>671</v>
+      </c>
       <c r="B674" s="43">
         <v>7425</v>
       </c>
@@ -30327,7 +30882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="2:10">
+    <row r="675" spans="1:10">
+      <c r="A675" s="5">
+        <v>672</v>
+      </c>
       <c r="B675" s="43">
         <v>7425</v>
       </c>
@@ -30356,7 +30914,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="2:10">
+    <row r="676" spans="1:10">
+      <c r="A676" s="5">
+        <v>673</v>
+      </c>
       <c r="B676" s="43">
         <v>7425</v>
       </c>
@@ -30385,7 +30946,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="2:10">
+    <row r="677" spans="1:10">
+      <c r="A677" s="5">
+        <v>674</v>
+      </c>
       <c r="B677" s="43">
         <v>7425</v>
       </c>
@@ -30414,7 +30978,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="2:10">
+    <row r="678" spans="1:10">
+      <c r="A678" s="5">
+        <v>675</v>
+      </c>
       <c r="B678" s="43">
         <v>7425</v>
       </c>
@@ -30443,7 +31010,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="2:10">
+    <row r="679" spans="1:10">
+      <c r="A679" s="5">
+        <v>676</v>
+      </c>
       <c r="B679" s="43">
         <v>7425</v>
       </c>
@@ -30472,7 +31042,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="2:10">
+    <row r="680" spans="1:10">
+      <c r="A680" s="5">
+        <v>677</v>
+      </c>
       <c r="B680" s="43">
         <v>7425</v>
       </c>
@@ -30501,7 +31074,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="2:10">
+    <row r="681" spans="1:10">
+      <c r="A681" s="5">
+        <v>678</v>
+      </c>
       <c r="B681" s="43">
         <v>7426</v>
       </c>
@@ -30530,7 +31106,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="2:10">
+    <row r="682" spans="1:10">
+      <c r="A682" s="5">
+        <v>679</v>
+      </c>
       <c r="B682" s="43">
         <v>7426</v>
       </c>
@@ -30559,7 +31138,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="2:10">
+    <row r="683" spans="1:10">
+      <c r="A683" s="5">
+        <v>680</v>
+      </c>
       <c r="B683" s="43">
         <v>7426</v>
       </c>
@@ -30588,7 +31170,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="2:10">
+    <row r="684" spans="1:10">
+      <c r="A684" s="5">
+        <v>681</v>
+      </c>
       <c r="B684" s="43">
         <v>7426</v>
       </c>
@@ -30617,7 +31202,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="2:10">
+    <row r="685" spans="1:10">
+      <c r="A685" s="5">
+        <v>682</v>
+      </c>
       <c r="B685" s="43">
         <v>7426</v>
       </c>
@@ -30646,7 +31234,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="2:10">
+    <row r="686" spans="1:10">
+      <c r="A686" s="5">
+        <v>683</v>
+      </c>
       <c r="B686" s="43">
         <v>7426</v>
       </c>
@@ -30675,7 +31266,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="2:10">
+    <row r="687" spans="1:10">
+      <c r="A687" s="5">
+        <v>684</v>
+      </c>
       <c r="B687" s="43">
         <v>7426</v>
       </c>
@@ -30704,7 +31298,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="2:10">
+    <row r="688" spans="1:10">
+      <c r="A688" s="5">
+        <v>685</v>
+      </c>
       <c r="B688" s="43">
         <v>7426</v>
       </c>
@@ -30733,7 +31330,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="2:10">
+    <row r="689" spans="1:10">
+      <c r="A689" s="5">
+        <v>686</v>
+      </c>
       <c r="B689" s="43">
         <v>7426</v>
       </c>
@@ -30762,7 +31362,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="2:10">
+    <row r="690" spans="1:10">
+      <c r="A690" s="5">
+        <v>687</v>
+      </c>
       <c r="B690" s="43">
         <v>7426</v>
       </c>
@@ -30791,7 +31394,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="2:10">
+    <row r="691" spans="1:10">
+      <c r="A691" s="5">
+        <v>688</v>
+      </c>
       <c r="B691" s="43">
         <v>7426</v>
       </c>
@@ -30820,7 +31426,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="2:10">
+    <row r="692" spans="1:10">
+      <c r="A692" s="5">
+        <v>689</v>
+      </c>
       <c r="B692" s="43">
         <v>7426</v>
       </c>
@@ -30849,7 +31458,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="2:10">
+    <row r="693" spans="1:10">
+      <c r="A693" s="5">
+        <v>690</v>
+      </c>
       <c r="B693" s="43">
         <v>7426</v>
       </c>
@@ -30878,7 +31490,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="2:10">
+    <row r="694" spans="1:10">
+      <c r="A694" s="5">
+        <v>691</v>
+      </c>
       <c r="B694" s="43">
         <v>7426</v>
       </c>
@@ -30907,7 +31522,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="2:10">
+    <row r="695" spans="1:10">
+      <c r="A695" s="5">
+        <v>692</v>
+      </c>
       <c r="B695" s="43">
         <v>7426</v>
       </c>
@@ -30936,7 +31554,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="2:10">
+    <row r="696" spans="1:10">
+      <c r="A696" s="5">
+        <v>693</v>
+      </c>
       <c r="B696" s="43">
         <v>7442</v>
       </c>
@@ -30965,7 +31586,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="2:10">
+    <row r="697" spans="1:10">
+      <c r="A697" s="5">
+        <v>694</v>
+      </c>
       <c r="B697" s="43">
         <v>7566</v>
       </c>
@@ -30994,7 +31618,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="2:10">
+    <row r="698" spans="1:10">
+      <c r="A698" s="5">
+        <v>695</v>
+      </c>
       <c r="B698" s="43">
         <v>7566</v>
       </c>
@@ -31023,7 +31650,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="2:10">
+    <row r="699" spans="1:10">
+      <c r="A699" s="5">
+        <v>696</v>
+      </c>
       <c r="B699" s="43">
         <v>7566</v>
       </c>
@@ -31052,7 +31682,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="2:10">
+    <row r="700" spans="1:10">
+      <c r="A700" s="5">
+        <v>697</v>
+      </c>
       <c r="B700" s="43">
         <v>7566</v>
       </c>
@@ -31081,7 +31714,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="2:10">
+    <row r="701" spans="1:10">
+      <c r="A701" s="5">
+        <v>698</v>
+      </c>
       <c r="B701" s="43">
         <v>7566</v>
       </c>
@@ -31110,7 +31746,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="2:10">
+    <row r="702" spans="1:10">
+      <c r="A702" s="5">
+        <v>699</v>
+      </c>
       <c r="B702" s="43">
         <v>7566</v>
       </c>
@@ -31139,7 +31778,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="2:10">
+    <row r="703" spans="1:10">
+      <c r="A703" s="5">
+        <v>700</v>
+      </c>
       <c r="B703" s="43">
         <v>7566</v>
       </c>
@@ -31168,7 +31810,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="2:10">
+    <row r="704" spans="1:10">
+      <c r="A704" s="5">
+        <v>701</v>
+      </c>
       <c r="B704" s="43">
         <v>7566</v>
       </c>
@@ -31197,7 +31842,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="2:10">
+    <row r="705" spans="1:10">
+      <c r="A705" s="5">
+        <v>702</v>
+      </c>
       <c r="B705" s="43">
         <v>7566</v>
       </c>
@@ -31226,7 +31874,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="2:10">
+    <row r="706" spans="1:10">
+      <c r="A706" s="5">
+        <v>703</v>
+      </c>
       <c r="B706" s="43">
         <v>7566</v>
       </c>
@@ -31255,7 +31906,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="2:10">
+    <row r="707" spans="1:10">
+      <c r="A707" s="5">
+        <v>704</v>
+      </c>
       <c r="B707" s="43">
         <v>7566</v>
       </c>
@@ -31284,7 +31938,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="2:10">
+    <row r="708" spans="1:10">
+      <c r="A708" s="5">
+        <v>705</v>
+      </c>
       <c r="B708" s="43">
         <v>7566</v>
       </c>
@@ -31313,7 +31970,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="2:10">
+    <row r="709" spans="1:10">
+      <c r="A709" s="5">
+        <v>706</v>
+      </c>
       <c r="B709" s="43">
         <v>7566</v>
       </c>
@@ -31342,7 +32002,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="2:10">
+    <row r="710" spans="1:10">
+      <c r="A710" s="5">
+        <v>707</v>
+      </c>
       <c r="B710" s="43">
         <v>7566</v>
       </c>
@@ -31371,7 +32034,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="2:10">
+    <row r="711" spans="1:10">
+      <c r="A711" s="5">
+        <v>708</v>
+      </c>
       <c r="B711" s="43">
         <v>7566</v>
       </c>
@@ -31400,7 +32066,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="2:10">
+    <row r="712" spans="1:10">
+      <c r="A712" s="5">
+        <v>709</v>
+      </c>
       <c r="B712" s="43">
         <v>7566</v>
       </c>
@@ -31429,7 +32098,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="2:10">
+    <row r="713" spans="1:10">
+      <c r="A713" s="5">
+        <v>710</v>
+      </c>
       <c r="B713" s="43">
         <v>7566</v>
       </c>
@@ -31458,7 +32130,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="2:10">
+    <row r="714" spans="1:10">
+      <c r="A714" s="5">
+        <v>711</v>
+      </c>
       <c r="B714" s="43">
         <v>7566</v>
       </c>
@@ -31487,7 +32162,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="2:10">
+    <row r="715" spans="1:10">
+      <c r="A715" s="5">
+        <v>712</v>
+      </c>
       <c r="B715" s="43">
         <v>7566</v>
       </c>
@@ -31516,7 +32194,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="2:10">
+    <row r="716" spans="1:10">
+      <c r="A716" s="5">
+        <v>713</v>
+      </c>
       <c r="B716" s="43">
         <v>7566</v>
       </c>
@@ -31545,7 +32226,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="2:10">
+    <row r="717" spans="1:10">
+      <c r="A717" s="5">
+        <v>714</v>
+      </c>
       <c r="B717" s="43">
         <v>7567</v>
       </c>
@@ -31574,7 +32258,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="2:10">
+    <row r="718" spans="1:10">
+      <c r="A718" s="5">
+        <v>715</v>
+      </c>
       <c r="B718" s="43">
         <v>7567</v>
       </c>
@@ -31603,7 +32290,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="2:10">
+    <row r="719" spans="1:10">
+      <c r="A719" s="5">
+        <v>716</v>
+      </c>
       <c r="B719" s="43">
         <v>7567</v>
       </c>
@@ -31632,7 +32322,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="2:10">
+    <row r="720" spans="1:10">
+      <c r="A720" s="5">
+        <v>717</v>
+      </c>
       <c r="B720" s="43">
         <v>7567</v>
       </c>
@@ -31661,7 +32354,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="2:10">
+    <row r="721" spans="1:10">
+      <c r="A721" s="5">
+        <v>718</v>
+      </c>
       <c r="B721" s="43">
         <v>7567</v>
       </c>
@@ -31690,7 +32386,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="2:10">
+    <row r="722" spans="1:10">
+      <c r="A722" s="5">
+        <v>719</v>
+      </c>
       <c r="B722" s="43">
         <v>7567</v>
       </c>
@@ -31719,7 +32418,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="2:10">
+    <row r="723" spans="1:10">
+      <c r="A723" s="5">
+        <v>720</v>
+      </c>
       <c r="B723" s="43">
         <v>7567</v>
       </c>
@@ -31748,7 +32450,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="2:10">
+    <row r="724" spans="1:10">
+      <c r="A724" s="5">
+        <v>721</v>
+      </c>
       <c r="B724" s="43">
         <v>7567</v>
       </c>
@@ -31777,7 +32482,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="2:10">
+    <row r="725" spans="1:10">
+      <c r="A725" s="5">
+        <v>722</v>
+      </c>
       <c r="B725" s="43">
         <v>7567</v>
       </c>
@@ -31806,7 +32514,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="2:10">
+    <row r="726" spans="1:10">
+      <c r="A726" s="5">
+        <v>723</v>
+      </c>
       <c r="B726" s="43">
         <v>7567</v>
       </c>
@@ -31835,7 +32546,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="2:10">
+    <row r="727" spans="1:10">
+      <c r="A727" s="5">
+        <v>724</v>
+      </c>
       <c r="B727" s="43">
         <v>7567</v>
       </c>
@@ -31864,7 +32578,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="2:10">
+    <row r="728" spans="1:10">
+      <c r="A728" s="5">
+        <v>725</v>
+      </c>
       <c r="B728" s="43">
         <v>7567</v>
       </c>
@@ -31893,7 +32610,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="2:10">
+    <row r="729" spans="1:10">
+      <c r="A729" s="5">
+        <v>726</v>
+      </c>
       <c r="B729" s="43">
         <v>7567</v>
       </c>
@@ -31922,7 +32642,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="2:10">
+    <row r="730" spans="1:10">
+      <c r="A730" s="5">
+        <v>727</v>
+      </c>
       <c r="B730" s="43">
         <v>7567</v>
       </c>
@@ -31951,7 +32674,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="2:10">
+    <row r="731" spans="1:10">
+      <c r="A731" s="5">
+        <v>728</v>
+      </c>
       <c r="B731" s="43">
         <v>7567</v>
       </c>
@@ -31980,7 +32706,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="2:10">
+    <row r="732" spans="1:10">
+      <c r="A732" s="5">
+        <v>729</v>
+      </c>
       <c r="B732" s="43">
         <v>7567</v>
       </c>
@@ -32009,7 +32738,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="2:10">
+    <row r="733" spans="1:10">
+      <c r="A733" s="5">
+        <v>730</v>
+      </c>
       <c r="B733" s="43">
         <v>7567</v>
       </c>
@@ -32038,7 +32770,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="2:10">
+    <row r="734" spans="1:10">
+      <c r="A734" s="5">
+        <v>731</v>
+      </c>
       <c r="B734" s="43">
         <v>7567</v>
       </c>
@@ -32067,7 +32802,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="2:10">
+    <row r="735" spans="1:10">
+      <c r="A735" s="5">
+        <v>732</v>
+      </c>
       <c r="B735" s="43">
         <v>7567</v>
       </c>
@@ -32096,7 +32834,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="2:10">
+    <row r="736" spans="1:10">
+      <c r="A736" s="5">
+        <v>733</v>
+      </c>
       <c r="B736" s="43">
         <v>7613</v>
       </c>
@@ -32125,7 +32866,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="2:10">
+    <row r="737" spans="1:10">
+      <c r="A737" s="5">
+        <v>734</v>
+      </c>
       <c r="B737" s="43">
         <v>7613</v>
       </c>
@@ -32154,7 +32898,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="2:10">
+    <row r="738" spans="1:10">
+      <c r="A738" s="5">
+        <v>735</v>
+      </c>
       <c r="B738" s="43">
         <v>7613</v>
       </c>
@@ -32183,7 +32930,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="2:10">
+    <row r="739" spans="1:10">
+      <c r="A739" s="5">
+        <v>736</v>
+      </c>
       <c r="B739" s="43">
         <v>7613</v>
       </c>
@@ -32212,7 +32962,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="2:10">
+    <row r="740" spans="1:10">
+      <c r="A740" s="5">
+        <v>737</v>
+      </c>
       <c r="B740" s="43">
         <v>7613</v>
       </c>
@@ -32241,7 +32994,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="2:10">
+    <row r="741" spans="1:10">
+      <c r="A741" s="5">
+        <v>738</v>
+      </c>
       <c r="B741" s="43">
         <v>7613</v>
       </c>
@@ -32270,7 +33026,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="2:10">
+    <row r="742" spans="1:10">
+      <c r="A742" s="5">
+        <v>739</v>
+      </c>
       <c r="B742" s="43">
         <v>7613</v>
       </c>
@@ -32299,7 +33058,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="2:10">
+    <row r="743" spans="1:10">
+      <c r="A743" s="5">
+        <v>740</v>
+      </c>
       <c r="B743" s="43">
         <v>7613</v>
       </c>
@@ -32328,7 +33090,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="2:10">
+    <row r="744" spans="1:10">
+      <c r="A744" s="5">
+        <v>741</v>
+      </c>
       <c r="B744" s="43">
         <v>7613</v>
       </c>
@@ -32357,7 +33122,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="2:10">
+    <row r="745" spans="1:10">
+      <c r="A745" s="5">
+        <v>742</v>
+      </c>
       <c r="B745" s="43">
         <v>7613</v>
       </c>
@@ -32386,7 +33154,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="2:10">
+    <row r="746" spans="1:10">
+      <c r="A746" s="5">
+        <v>743</v>
+      </c>
       <c r="B746" s="43">
         <v>7613</v>
       </c>
@@ -32415,7 +33186,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="2:10">
+    <row r="747" spans="1:10">
+      <c r="A747" s="5">
+        <v>744</v>
+      </c>
       <c r="B747" s="43">
         <v>7613</v>
       </c>
@@ -32444,7 +33218,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="2:10">
+    <row r="748" spans="1:10">
+      <c r="A748" s="5">
+        <v>745</v>
+      </c>
       <c r="B748" s="43">
         <v>7613</v>
       </c>
@@ -32473,7 +33250,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="2:10">
+    <row r="749" spans="1:10">
+      <c r="A749" s="5">
+        <v>746</v>
+      </c>
       <c r="B749" s="43">
         <v>7613</v>
       </c>
@@ -32502,7 +33282,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="2:10">
+    <row r="750" spans="1:10">
+      <c r="A750" s="5">
+        <v>747</v>
+      </c>
       <c r="B750" s="43">
         <v>7613</v>
       </c>
@@ -32531,7 +33314,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="2:10">
+    <row r="751" spans="1:10">
+      <c r="A751" s="5">
+        <v>748</v>
+      </c>
       <c r="B751" s="43">
         <v>7654</v>
       </c>
@@ -32560,7 +33346,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="2:10">
+    <row r="752" spans="1:10">
+      <c r="A752" s="5">
+        <v>749</v>
+      </c>
       <c r="B752" s="43">
         <v>7654</v>
       </c>
@@ -32589,7 +33378,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="2:10">
+    <row r="753" spans="1:10">
+      <c r="A753" s="5">
+        <v>750</v>
+      </c>
       <c r="B753" s="43">
         <v>7654</v>
       </c>
@@ -32618,7 +33410,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="2:10">
+    <row r="754" spans="1:10">
+      <c r="A754" s="5">
+        <v>751</v>
+      </c>
       <c r="B754" s="43">
         <v>7654</v>
       </c>
@@ -32647,7 +33442,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="2:10">
+    <row r="755" spans="1:10">
+      <c r="A755" s="5">
+        <v>752</v>
+      </c>
       <c r="B755" s="43">
         <v>7654</v>
       </c>
@@ -32676,7 +33474,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="2:10">
+    <row r="756" spans="1:10">
+      <c r="A756" s="5">
+        <v>753</v>
+      </c>
       <c r="B756" s="43">
         <v>7654</v>
       </c>
@@ -32705,7 +33506,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="2:10">
+    <row r="757" spans="1:10">
+      <c r="A757" s="5">
+        <v>754</v>
+      </c>
       <c r="B757" s="43">
         <v>7654</v>
       </c>
@@ -32734,7 +33538,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="2:10">
+    <row r="758" spans="1:10">
+      <c r="A758" s="5">
+        <v>755</v>
+      </c>
       <c r="B758" s="43">
         <v>7654</v>
       </c>
@@ -32763,7 +33570,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="2:10">
+    <row r="759" spans="1:10">
+      <c r="A759" s="5">
+        <v>756</v>
+      </c>
       <c r="B759" s="43">
         <v>7654</v>
       </c>
@@ -32792,7 +33602,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="2:10">
+    <row r="760" spans="1:10">
+      <c r="A760" s="5">
+        <v>757</v>
+      </c>
       <c r="B760" s="43">
         <v>7654</v>
       </c>
@@ -32821,7 +33634,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="2:10">
+    <row r="761" spans="1:10">
+      <c r="A761" s="5">
+        <v>758</v>
+      </c>
       <c r="B761" s="43">
         <v>7654</v>
       </c>
@@ -32850,7 +33666,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="2:10">
+    <row r="762" spans="1:10">
+      <c r="A762" s="5">
+        <v>759</v>
+      </c>
       <c r="B762" s="43">
         <v>7654</v>
       </c>
@@ -32879,7 +33698,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="2:10">
+    <row r="763" spans="1:10">
+      <c r="A763" s="5">
+        <v>760</v>
+      </c>
       <c r="B763" s="43">
         <v>7654</v>
       </c>
@@ -32908,7 +33730,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="2:10">
+    <row r="764" spans="1:10">
+      <c r="A764" s="5">
+        <v>761</v>
+      </c>
       <c r="B764" s="43">
         <v>7654</v>
       </c>
@@ -32937,7 +33762,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="2:10">
+    <row r="765" spans="1:10">
+      <c r="A765" s="5">
+        <v>762</v>
+      </c>
       <c r="B765" s="43">
         <v>7654</v>
       </c>
@@ -32966,7 +33794,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="2:10">
+    <row r="766" spans="1:10">
+      <c r="A766" s="5">
+        <v>763</v>
+      </c>
       <c r="B766" s="43">
         <v>7654</v>
       </c>
@@ -32995,7 +33826,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="2:10">
+    <row r="767" spans="1:10">
+      <c r="A767" s="5">
+        <v>764</v>
+      </c>
       <c r="B767" s="43">
         <v>7654</v>
       </c>
@@ -33024,7 +33858,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="2:10">
+    <row r="768" spans="1:10">
+      <c r="A768" s="5">
+        <v>765</v>
+      </c>
       <c r="B768" s="43">
         <v>7654</v>
       </c>
@@ -33053,7 +33890,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="2:10">
+    <row r="769" spans="1:10">
+      <c r="A769" s="5">
+        <v>766</v>
+      </c>
       <c r="B769" s="43">
         <v>7654</v>
       </c>
@@ -33082,7 +33922,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="2:10">
+    <row r="770" spans="1:10">
+      <c r="A770" s="5">
+        <v>767</v>
+      </c>
       <c r="B770" s="43">
         <v>7880</v>
       </c>
@@ -33111,7 +33954,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="2:10">
+    <row r="771" spans="1:10">
+      <c r="A771" s="5">
+        <v>768</v>
+      </c>
       <c r="B771" s="43">
         <v>7880</v>
       </c>
@@ -33140,7 +33986,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="2:10">
+    <row r="772" spans="1:10">
+      <c r="A772" s="5">
+        <v>769</v>
+      </c>
       <c r="B772" s="43">
         <v>7880</v>
       </c>
@@ -33169,7 +34018,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="2:10">
+    <row r="773" spans="1:10">
+      <c r="A773" s="5">
+        <v>770</v>
+      </c>
       <c r="B773" s="43">
         <v>7880</v>
       </c>
@@ -33198,7 +34050,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="2:10">
+    <row r="774" spans="1:10">
+      <c r="A774" s="5">
+        <v>771</v>
+      </c>
       <c r="B774" s="43">
         <v>7880</v>
       </c>
@@ -33227,7 +34082,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="2:10">
+    <row r="775" spans="1:10">
+      <c r="A775" s="5">
+        <v>772</v>
+      </c>
       <c r="B775" s="43">
         <v>7880</v>
       </c>
@@ -33256,7 +34114,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="2:10">
+    <row r="776" spans="1:10">
+      <c r="A776" s="5">
+        <v>773</v>
+      </c>
       <c r="B776" s="43">
         <v>7880</v>
       </c>
@@ -33285,7 +34146,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="2:10">
+    <row r="777" spans="1:10">
+      <c r="A777" s="5">
+        <v>774</v>
+      </c>
       <c r="B777" s="43">
         <v>7880</v>
       </c>
@@ -33314,7 +34178,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="2:10">
+    <row r="778" spans="1:10">
+      <c r="A778" s="5">
+        <v>775</v>
+      </c>
       <c r="B778" s="43">
         <v>7880</v>
       </c>
@@ -33343,7 +34210,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="2:10">
+    <row r="779" spans="1:10">
+      <c r="A779" s="5">
+        <v>776</v>
+      </c>
       <c r="B779" s="43">
         <v>7880</v>
       </c>
@@ -33372,7 +34242,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="2:10">
+    <row r="780" spans="1:10">
+      <c r="A780" s="5">
+        <v>777</v>
+      </c>
       <c r="B780" s="43">
         <v>7880</v>
       </c>
@@ -33401,7 +34274,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="2:10">
+    <row r="781" spans="1:10">
+      <c r="A781" s="5">
+        <v>778</v>
+      </c>
       <c r="B781" s="43">
         <v>7880</v>
       </c>
@@ -33430,7 +34306,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="2:10">
+    <row r="782" spans="1:10">
+      <c r="A782" s="5">
+        <v>779</v>
+      </c>
       <c r="B782" s="43">
         <v>7880</v>
       </c>
@@ -33459,7 +34338,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="2:10">
+    <row r="783" spans="1:10">
+      <c r="A783" s="5">
+        <v>780</v>
+      </c>
       <c r="B783" s="43">
         <v>7880</v>
       </c>
@@ -33488,7 +34370,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="2:10">
+    <row r="784" spans="1:10">
+      <c r="A784" s="5">
+        <v>781</v>
+      </c>
       <c r="B784" s="43">
         <v>7880</v>
       </c>
@@ -33517,7 +34402,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="2:10">
+    <row r="785" spans="1:10">
+      <c r="A785" s="5">
+        <v>782</v>
+      </c>
       <c r="B785" s="43">
         <v>7880</v>
       </c>
@@ -33546,7 +34434,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="2:10">
+    <row r="786" spans="1:10">
+      <c r="A786" s="5">
+        <v>783</v>
+      </c>
       <c r="B786" s="43">
         <v>7880</v>
       </c>
@@ -33575,7 +34466,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="2:10">
+    <row r="787" spans="1:10">
+      <c r="A787" s="5">
+        <v>784</v>
+      </c>
       <c r="B787" s="43">
         <v>7880</v>
       </c>
@@ -33604,7 +34498,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="2:10">
+    <row r="788" spans="1:10">
+      <c r="A788" s="5">
+        <v>785</v>
+      </c>
       <c r="B788" s="43"/>
       <c r="C788" s="43"/>
       <c r="D788" s="43">
@@ -33629,7 +34526,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="2:10">
+    <row r="789" spans="1:10">
+      <c r="A789" s="5">
+        <v>786</v>
+      </c>
       <c r="B789" s="43"/>
       <c r="C789" s="43"/>
       <c r="D789" s="43">
@@ -33654,7 +34554,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="2:10">
+    <row r="790" spans="1:10">
+      <c r="A790" s="5">
+        <v>787</v>
+      </c>
       <c r="B790" s="43"/>
       <c r="C790" s="43"/>
       <c r="D790" s="43">
@@ -33679,7 +34582,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="2:10">
+    <row r="791" spans="1:10">
+      <c r="A791" s="5">
+        <v>788</v>
+      </c>
       <c r="B791" s="43"/>
       <c r="C791" s="43"/>
       <c r="D791" s="43">
@@ -33704,7 +34610,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="2:10">
+    <row r="792" spans="1:10">
+      <c r="A792" s="5">
+        <v>789</v>
+      </c>
       <c r="B792" s="43"/>
       <c r="C792" s="43"/>
       <c r="D792" s="43">
@@ -33729,7 +34638,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="2:10">
+    <row r="793" spans="1:10">
+      <c r="A793" s="5">
+        <v>790</v>
+      </c>
       <c r="B793" s="43"/>
       <c r="C793" s="43"/>
       <c r="D793" s="43">
@@ -33754,7 +34666,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="2:10">
+    <row r="794" spans="1:10">
+      <c r="A794" s="5">
+        <v>791</v>
+      </c>
       <c r="B794" s="43"/>
       <c r="C794" s="43"/>
       <c r="D794" s="43">
@@ -33779,7 +34694,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="2:10">
+    <row r="795" spans="1:10">
+      <c r="A795" s="5">
+        <v>792</v>
+      </c>
       <c r="B795" s="43"/>
       <c r="C795" s="43"/>
       <c r="D795" s="43">
@@ -33804,7 +34722,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="2:10">
+    <row r="796" spans="1:10">
+      <c r="A796" s="5">
+        <v>793</v>
+      </c>
       <c r="B796" s="43"/>
       <c r="C796" s="43"/>
       <c r="D796" s="43">
@@ -33829,7 +34750,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="2:10">
+    <row r="797" spans="1:10">
+      <c r="A797" s="5">
+        <v>794</v>
+      </c>
       <c r="B797" s="43"/>
       <c r="C797" s="43"/>
       <c r="D797" s="43">
@@ -33854,7 +34778,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="2:10">
+    <row r="798" spans="1:10">
+      <c r="A798" s="5">
+        <v>795</v>
+      </c>
       <c r="B798" s="43"/>
       <c r="C798" s="43"/>
       <c r="D798" s="43">
@@ -33879,7 +34806,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="2:10">
+    <row r="799" spans="1:10">
+      <c r="A799" s="5">
+        <v>796</v>
+      </c>
       <c r="B799" s="43"/>
       <c r="C799" s="43"/>
       <c r="D799" s="43">
@@ -33904,7 +34834,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="2:10">
+    <row r="800" spans="1:10">
+      <c r="A800" s="5">
+        <v>797</v>
+      </c>
       <c r="B800" s="43"/>
       <c r="C800" s="43"/>
       <c r="D800" s="43">
@@ -33929,7 +34862,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="2:10">
+    <row r="801" spans="1:10">
+      <c r="A801" s="5">
+        <v>798</v>
+      </c>
       <c r="B801" s="43"/>
       <c r="C801" s="43"/>
       <c r="D801" s="43">
@@ -33954,7 +34890,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="2:10">
+    <row r="802" spans="1:10">
+      <c r="A802" s="5">
+        <v>799</v>
+      </c>
       <c r="B802" s="43"/>
       <c r="C802" s="43"/>
       <c r="D802" s="43">
@@ -33979,7 +34918,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="2:10">
+    <row r="803" spans="1:10">
+      <c r="A803" s="5">
+        <v>800</v>
+      </c>
       <c r="B803" s="43"/>
       <c r="C803" s="43"/>
       <c r="D803" s="43">
@@ -34004,7 +34946,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="2:10">
+    <row r="804" spans="1:10">
+      <c r="A804" s="5">
+        <v>801</v>
+      </c>
       <c r="B804" s="43"/>
       <c r="C804" s="43"/>
       <c r="D804" s="43">
@@ -34029,7 +34974,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="2:10">
+    <row r="805" spans="1:10">
+      <c r="A805" s="5">
+        <v>802</v>
+      </c>
       <c r="B805" s="43"/>
       <c r="C805" s="43"/>
       <c r="D805" s="43">
@@ -34054,7 +35002,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="2:10">
+    <row r="806" spans="1:10">
+      <c r="A806" s="5">
+        <v>803</v>
+      </c>
       <c r="B806" s="43"/>
       <c r="C806" s="43"/>
       <c r="D806" s="43">
@@ -34079,7 +35030,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="2:10">
+    <row r="807" spans="1:10">
+      <c r="A807" s="5">
+        <v>804</v>
+      </c>
       <c r="B807" s="43"/>
       <c r="C807" s="43"/>
       <c r="D807" s="43">
@@ -34104,7 +35058,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="2:10">
+    <row r="808" spans="1:10">
+      <c r="A808" s="5">
+        <v>805</v>
+      </c>
       <c r="B808" s="43"/>
       <c r="C808" s="43"/>
       <c r="D808" s="43">
@@ -34129,7 +35086,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="2:10">
+    <row r="809" spans="1:10">
+      <c r="A809" s="5">
+        <v>806</v>
+      </c>
       <c r="B809" s="43"/>
       <c r="C809" s="43"/>
       <c r="D809" s="43">
@@ -34154,7 +35114,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="2:10">
+    <row r="810" spans="1:10">
+      <c r="A810" s="5">
+        <v>807</v>
+      </c>
       <c r="B810" s="43"/>
       <c r="C810" s="43"/>
       <c r="D810" s="43">
@@ -34179,7 +35142,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="2:10">
+    <row r="811" spans="1:10">
+      <c r="A811" s="5">
+        <v>808</v>
+      </c>
       <c r="B811" s="43"/>
       <c r="C811" s="43"/>
       <c r="D811" s="43">
@@ -34204,7 +35170,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="2:10">
+    <row r="812" spans="1:10">
+      <c r="A812" s="5">
+        <v>809</v>
+      </c>
       <c r="B812" s="43"/>
       <c r="C812" s="43"/>
       <c r="D812" s="43">
@@ -34229,7 +35198,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="2:10">
+    <row r="813" spans="1:10">
+      <c r="A813" s="5">
+        <v>810</v>
+      </c>
       <c r="B813" s="43"/>
       <c r="C813" s="43"/>
       <c r="D813" s="43">
@@ -34254,7 +35226,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="2:10">
+    <row r="814" spans="1:10">
+      <c r="A814" s="5">
+        <v>811</v>
+      </c>
       <c r="B814" s="43"/>
       <c r="C814" s="43"/>
       <c r="D814" s="43">
@@ -34279,7 +35254,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="2:10">
+    <row r="815" spans="1:10">
+      <c r="A815" s="5">
+        <v>812</v>
+      </c>
       <c r="B815" s="43"/>
       <c r="C815" s="43"/>
       <c r="D815" s="43">
@@ -34304,7 +35282,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="2:10">
+    <row r="816" spans="1:10">
+      <c r="A816" s="5">
+        <v>813</v>
+      </c>
       <c r="B816" s="43"/>
       <c r="C816" s="43"/>
       <c r="D816" s="43">
@@ -34329,7 +35310,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="2:10">
+    <row r="817" spans="1:10">
+      <c r="A817" s="5">
+        <v>814</v>
+      </c>
       <c r="B817" s="43"/>
       <c r="C817" s="43"/>
       <c r="D817" s="43">
@@ -34354,7 +35338,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="2:10">
+    <row r="818" spans="1:10">
+      <c r="A818" s="5">
+        <v>815</v>
+      </c>
       <c r="B818" s="43"/>
       <c r="C818" s="43"/>
       <c r="D818" s="43">
@@ -34379,7 +35366,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="2:10">
+    <row r="819" spans="1:10">
+      <c r="A819" s="5">
+        <v>816</v>
+      </c>
       <c r="B819" s="43"/>
       <c r="C819" s="43"/>
       <c r="D819" s="43">
@@ -34404,7 +35394,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="2:10">
+    <row r="820" spans="1:10">
+      <c r="A820" s="5">
+        <v>817</v>
+      </c>
       <c r="B820" s="43"/>
       <c r="C820" s="43"/>
       <c r="D820" s="43">
@@ -34429,7 +35422,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="2:10">
+    <row r="821" spans="1:10">
+      <c r="A821" s="5">
+        <v>818</v>
+      </c>
       <c r="B821" s="43"/>
       <c r="C821" s="43"/>
       <c r="D821" s="43">
@@ -34454,7 +35450,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="2:10">
+    <row r="822" spans="1:10">
+      <c r="A822" s="5">
+        <v>819</v>
+      </c>
       <c r="B822" s="43"/>
       <c r="C822" s="43"/>
       <c r="D822" s="43">
@@ -34479,7 +35478,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="2:10">
+    <row r="823" spans="1:10">
+      <c r="A823" s="5">
+        <v>820</v>
+      </c>
       <c r="B823" s="43"/>
       <c r="C823" s="43"/>
       <c r="D823" s="43">
@@ -34504,7 +35506,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="2:10">
+    <row r="824" spans="1:10">
+      <c r="A824" s="5">
+        <v>821</v>
+      </c>
       <c r="B824" s="43"/>
       <c r="C824" s="43"/>
       <c r="D824" s="43">
@@ -34529,7 +35534,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="2:10">
+    <row r="825" spans="1:10">
+      <c r="A825" s="5">
+        <v>822</v>
+      </c>
       <c r="B825" s="43"/>
       <c r="C825" s="43"/>
       <c r="D825" s="43">
@@ -34554,7 +35562,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="2:10">
+    <row r="826" spans="1:10">
+      <c r="A826" s="5">
+        <v>823</v>
+      </c>
       <c r="B826" s="43"/>
       <c r="C826" s="43"/>
       <c r="D826" s="43">
@@ -34579,7 +35590,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="2:10">
+    <row r="827" spans="1:10">
+      <c r="A827" s="5">
+        <v>824</v>
+      </c>
       <c r="B827" s="43"/>
       <c r="C827" s="43"/>
       <c r="D827" s="43">
@@ -34604,7 +35618,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="2:10">
+    <row r="828" spans="1:10">
+      <c r="A828" s="5">
+        <v>825</v>
+      </c>
       <c r="B828" s="43"/>
       <c r="C828" s="43"/>
       <c r="D828" s="43">
@@ -34629,7 +35646,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="2:10">
+    <row r="829" spans="1:10">
+      <c r="A829" s="5">
+        <v>826</v>
+      </c>
       <c r="B829" s="43"/>
       <c r="C829" s="43"/>
       <c r="D829" s="43">
@@ -34654,7 +35674,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="2:10">
+    <row r="830" spans="1:10">
+      <c r="A830" s="5">
+        <v>827</v>
+      </c>
       <c r="B830" s="43"/>
       <c r="C830" s="43"/>
       <c r="D830" s="43">
@@ -34679,7 +35702,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="2:10">
+    <row r="831" spans="1:10">
+      <c r="A831" s="5">
+        <v>828</v>
+      </c>
       <c r="B831" s="43"/>
       <c r="C831" s="43"/>
       <c r="D831" s="43">
@@ -34704,7 +35730,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="2:10">
+    <row r="832" spans="1:10">
+      <c r="A832" s="5">
+        <v>829</v>
+      </c>
       <c r="B832" s="43"/>
       <c r="C832" s="43"/>
       <c r="D832" s="43">
@@ -34729,7 +35758,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="2:10">
+    <row r="833" spans="1:10">
+      <c r="A833" s="5">
+        <v>830</v>
+      </c>
       <c r="B833" s="43"/>
       <c r="C833" s="43"/>
       <c r="D833" s="43">
@@ -34754,7 +35786,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="2:10">
+    <row r="834" spans="1:10">
+      <c r="A834" s="5">
+        <v>831</v>
+      </c>
       <c r="B834" s="43"/>
       <c r="C834" s="43"/>
       <c r="D834" s="43">
@@ -34779,7 +35814,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="2:10">
+    <row r="835" spans="1:10">
+      <c r="A835" s="5">
+        <v>832</v>
+      </c>
       <c r="B835" s="43"/>
       <c r="C835" s="43"/>
       <c r="D835" s="43">
@@ -34804,7 +35842,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="2:10">
+    <row r="836" spans="1:10">
+      <c r="A836" s="5">
+        <v>833</v>
+      </c>
       <c r="B836" s="43"/>
       <c r="C836" s="43"/>
       <c r="D836" s="43">
@@ -34829,7 +35870,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="2:10">
+    <row r="837" spans="1:10">
+      <c r="A837" s="5">
+        <v>834</v>
+      </c>
       <c r="B837" s="43"/>
       <c r="C837" s="43"/>
       <c r="D837" s="43">
@@ -34854,7 +35898,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="2:10">
+    <row r="838" spans="1:10">
+      <c r="A838" s="5">
+        <v>835</v>
+      </c>
       <c r="B838" s="43"/>
       <c r="C838" s="43"/>
       <c r="D838" s="43">
@@ -34879,7 +35926,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="2:10">
+    <row r="839" spans="1:10">
+      <c r="A839" s="5">
+        <v>836</v>
+      </c>
       <c r="B839" s="43"/>
       <c r="C839" s="43"/>
       <c r="D839" s="43">
@@ -34904,7 +35954,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="2:10">
+    <row r="840" spans="1:10">
+      <c r="A840" s="5">
+        <v>837</v>
+      </c>
       <c r="B840" s="43"/>
       <c r="C840" s="43"/>
       <c r="D840" s="43">
@@ -34929,7 +35982,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="2:10">
+    <row r="841" spans="1:10">
+      <c r="A841" s="5">
+        <v>838</v>
+      </c>
       <c r="B841" s="43"/>
       <c r="C841" s="43"/>
       <c r="D841" s="43">
@@ -34954,7 +36010,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="2:10">
+    <row r="842" spans="1:10">
+      <c r="A842" s="5">
+        <v>839</v>
+      </c>
       <c r="B842" s="43"/>
       <c r="C842" s="43"/>
       <c r="D842" s="43">
@@ -34979,7 +36038,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="2:10">
+    <row r="843" spans="1:10">
+      <c r="A843" s="5">
+        <v>840</v>
+      </c>
       <c r="B843" s="43"/>
       <c r="C843" s="43"/>
       <c r="D843" s="43">
@@ -35004,7 +36066,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="2:10">
+    <row r="844" spans="1:10">
+      <c r="A844" s="5">
+        <v>841</v>
+      </c>
       <c r="B844" s="43"/>
       <c r="C844" s="43"/>
       <c r="D844" s="43">
@@ -35029,7 +36094,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="2:10">
+    <row r="845" spans="1:10">
+      <c r="A845" s="5">
+        <v>842</v>
+      </c>
       <c r="B845" s="43"/>
       <c r="C845" s="43"/>
       <c r="D845" s="43">
@@ -35054,7 +36122,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="2:10">
+    <row r="846" spans="1:10">
+      <c r="A846" s="5">
+        <v>843</v>
+      </c>
       <c r="B846" s="43"/>
       <c r="C846" s="43"/>
       <c r="D846" s="43">
@@ -35079,7 +36150,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="2:10">
+    <row r="847" spans="1:10">
+      <c r="A847" s="5">
+        <v>844</v>
+      </c>
       <c r="B847" s="43"/>
       <c r="C847" s="43"/>
       <c r="D847" s="43">
@@ -35104,7 +36178,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="2:10">
+    <row r="848" spans="1:10">
+      <c r="A848" s="5">
+        <v>845</v>
+      </c>
       <c r="B848" s="43"/>
       <c r="C848" s="43"/>
       <c r="D848" s="43">
@@ -35129,7 +36206,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="2:10">
+    <row r="849" spans="1:10">
+      <c r="A849" s="5">
+        <v>846</v>
+      </c>
       <c r="B849" s="43"/>
       <c r="C849" s="43"/>
       <c r="D849" s="43">
@@ -35154,7 +36234,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="2:10">
+    <row r="850" spans="1:10">
+      <c r="A850" s="5">
+        <v>847</v>
+      </c>
       <c r="B850" s="43"/>
       <c r="C850" s="43"/>
       <c r="D850" s="43">
@@ -35179,7 +36262,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="2:10">
+    <row r="851" spans="1:10">
+      <c r="A851" s="5">
+        <v>848</v>
+      </c>
       <c r="B851" s="43"/>
       <c r="C851" s="43"/>
       <c r="D851" s="43">
@@ -35204,7 +36290,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="2:10">
+    <row r="852" spans="1:10">
+      <c r="A852" s="5">
+        <v>849</v>
+      </c>
       <c r="B852" s="43"/>
       <c r="C852" s="43"/>
       <c r="D852" s="43">
@@ -35229,7 +36318,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="2:10">
+    <row r="853" spans="1:10">
+      <c r="A853" s="5">
+        <v>850</v>
+      </c>
       <c r="B853" s="43"/>
       <c r="C853" s="43"/>
       <c r="D853" s="43">
@@ -35254,7 +36346,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="2:10">
+    <row r="854" spans="1:10">
+      <c r="A854" s="5">
+        <v>851</v>
+      </c>
       <c r="B854" s="43"/>
       <c r="C854" s="43"/>
       <c r="D854" s="43">
@@ -35279,7 +36374,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="2:10">
+    <row r="855" spans="1:10">
+      <c r="A855" s="5">
+        <v>852</v>
+      </c>
       <c r="B855" s="43"/>
       <c r="C855" s="43"/>
       <c r="D855" s="43">
@@ -35304,7 +36402,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="2:10">
+    <row r="856" spans="1:10">
+      <c r="A856" s="5">
+        <v>853</v>
+      </c>
       <c r="B856" s="43"/>
       <c r="C856" s="43"/>
       <c r="D856" s="43">
@@ -35329,7 +36430,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="2:10">
+    <row r="857" spans="1:10">
+      <c r="A857" s="5">
+        <v>854</v>
+      </c>
       <c r="B857" s="43"/>
       <c r="C857" s="43"/>
       <c r="D857" s="43">
@@ -35354,7 +36458,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="2:10">
+    <row r="858" spans="1:10">
+      <c r="A858" s="5">
+        <v>855</v>
+      </c>
       <c r="B858" s="43"/>
       <c r="C858" s="43"/>
       <c r="D858" s="43">
@@ -35379,7 +36486,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="2:10">
+    <row r="859" spans="1:10">
+      <c r="A859" s="5">
+        <v>856</v>
+      </c>
       <c r="B859" s="43"/>
       <c r="C859" s="43"/>
       <c r="D859" s="43">
@@ -35400,7 +36510,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="2:10">
+    <row r="860" spans="1:10">
+      <c r="A860" s="5">
+        <v>857</v>
+      </c>
       <c r="B860" s="43"/>
       <c r="C860" s="43"/>
       <c r="D860" s="43">
@@ -35421,7 +36534,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="2:10">
+    <row r="861" spans="1:10">
+      <c r="A861" s="5">
+        <v>858</v>
+      </c>
       <c r="B861" s="43"/>
       <c r="C861" s="43"/>
       <c r="D861" s="43">
@@ -35442,7 +36558,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="2:10">
+    <row r="862" spans="1:10">
+      <c r="A862" s="5">
+        <v>859</v>
+      </c>
       <c r="B862" s="43"/>
       <c r="C862" s="43"/>
       <c r="D862" s="43"/>
@@ -35459,7 +36578,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="2:10">
+    <row r="863" spans="1:10">
+      <c r="A863" s="5">
+        <v>860</v>
+      </c>
       <c r="B863" s="43"/>
       <c r="C863" s="43"/>
       <c r="D863" s="43"/>
@@ -35476,7 +36598,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="2:10">
+    <row r="864" spans="1:10">
+      <c r="A864" s="5">
+        <v>861</v>
+      </c>
       <c r="B864" s="43"/>
       <c r="C864" s="43"/>
       <c r="D864" s="43"/>
@@ -35493,7 +36618,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="2:10">
+    <row r="865" spans="1:10">
+      <c r="A865" s="5">
+        <v>862</v>
+      </c>
       <c r="B865" s="43"/>
       <c r="C865" s="43"/>
       <c r="D865" s="43"/>
@@ -35509,7 +36637,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="2:10">
+    <row r="866" spans="1:10">
+      <c r="A866" s="5">
+        <v>863</v>
+      </c>
       <c r="B866" s="43"/>
       <c r="C866" s="43"/>
       <c r="D866" s="43"/>
@@ -35525,7 +36656,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="2:10">
+    <row r="867" spans="1:10">
+      <c r="A867" s="5">
+        <v>864</v>
+      </c>
       <c r="B867" s="43"/>
       <c r="C867" s="43"/>
       <c r="D867" s="43"/>
